--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-domain-VitalSigns-Observation-bodyheight</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/no-domain-VitalSigns-Observation-bodyheight</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -481,7 +481,7 @@
     <t>bodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsBodyHeightBodyPositionExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsBodyHeightBodyPositionExtension}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>confoundingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
 </t>
   </si>
   <si>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bodyheight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
